--- a/server/docs/ShopCfgExcel_com.wan37.config.entity.ShopCfgExcel.xlsx
+++ b/server/docs/ShopCfgExcel_com.wan37.config.entity.ShopCfgExcel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E4147B2-2C65-4F7F-AFFB-C7D18A0BCE4D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F0B00C3-6CF6-4958-AD60-6ABBA867D63C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,6 +55,10 @@
   </si>
   <si>
     <t>1:50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:100</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -381,10 +385,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -490,6 +494,17 @@
         <v>8</v>
       </c>
     </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>40001</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/server/docs/ShopCfgExcel_com.wan37.config.entity.ShopCfgExcel.xlsx
+++ b/server/docs/ShopCfgExcel_com.wan37.config.entity.ShopCfgExcel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F0B00C3-6CF6-4958-AD60-6ABBA867D63C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6346807A-688D-40DB-BB39-A6AEF90D0216}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,6 +59,10 @@
   </si>
   <si>
     <t>1:100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:300</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -385,10 +389,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -505,6 +509,17 @@
         <v>9</v>
       </c>
     </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>50001</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
